--- a/medicine/Psychotrope/Sciascinoso/Sciascinoso.xlsx
+++ b/medicine/Psychotrope/Sciascinoso/Sciascinoso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sciascinoso est un cépage italien de raisins rouges.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient du sud de l’Italie.
 Il est classé recommandé dans la région Campanie. En 1998, elle couvrait 440 ha.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux, blanc à liseré rosé.
 Jeunes feuilles aranéeuses, blanchâtres à dessous duveteux.
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque : 30 jours après le chasselas.
 </t>
@@ -607,7 +625,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille grande. La grappe est légèrement conique ou cylindrique. Le cépage est de bonne vigueur préférant une taille longue.
 Il donne des vins très coloré. Les vins sont à consommer dans l'année. Généralement il est vinifié en assemblage avec les cépages piedirosso et aglianico.
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sciascinoso est connu sous les noms de avellinese, cascolo, cascolone, foscopeloso, livella, livellone, sancinoso, sanginoso, sanguinosa, sarcinosa, sciascinoso, sciascinuso, strascinatolo, strascinuso, uva, pane rossa, uva di Avellino, uva Sanseverino, olivella bastarda, olivellone.
 </t>
